--- a/biology/Botanique/Ludwigie_palustre/Ludwigie_palustre.xlsx
+++ b/biology/Botanique/Ludwigie_palustre/Ludwigie_palustre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwigia palustris, l'Isnardie des marais ou Ludwigie des marais, est une espèce de plantes herbacées de la famille des Onagraceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tige mesure un demi-mètre de long. Les feuilles, qui peuvent être rouges, vertes ou pourpres, sont disposées de manière opposée sur la plante. Des fleurs, solitaires, sont constituées de minuscules sépales verts et n'ont pas de pétales. Ils donnent des petits fruits capsulaires contenant de nombreuses graines.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ludwigia palustris est considérée comme une espèce subatlantique, subméditerranéenne et circumpolaire ayant une vaste aire de répartition. Il est présent en Amérique du Nord, dans les régions centrale et septentrionale de l'Amérique du Sud, en Afrique (principalement dans les parties nord et sud du continent), en Asie (la zone tempérée située à l'ouest du continent) et en Europe. L'aire de distribution européenne comprend presque tout le continent, à l'exception des parties N et NE. Il est également connu du Caucase (Géorgie). Des cas de naturalisation ont été signalé à Hawaii, en Australie et en Nouvelle-Zélande[1]. L'espèce est aussi cultivée comme plante d'aquarium. C'est une plante aquatique vivace des zones inondées, marais, étangs et mares. En France, l'espèce bénéficie d'une protection régionale en Alsace, Basse-Normandie, Franche-Comté, Lorraine et Rhône-Alpes mais classée dans les organismes nuisibles dont l’introduction est interdite en Nouvelle-Calédonie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ludwigia palustris est considérée comme une espèce subatlantique, subméditerranéenne et circumpolaire ayant une vaste aire de répartition. Il est présent en Amérique du Nord, dans les régions centrale et septentrionale de l'Amérique du Sud, en Afrique (principalement dans les parties nord et sud du continent), en Asie (la zone tempérée située à l'ouest du continent) et en Europe. L'aire de distribution européenne comprend presque tout le continent, à l'exception des parties N et NE. Il est également connu du Caucase (Géorgie). Des cas de naturalisation ont été signalé à Hawaii, en Australie et en Nouvelle-Zélande. L'espèce est aussi cultivée comme plante d'aquarium. C'est une plante aquatique vivace des zones inondées, marais, étangs et mares. En France, l'espèce bénéficie d'une protection régionale en Alsace, Basse-Normandie, Franche-Comté, Lorraine et Rhône-Alpes mais classée dans les organismes nuisibles dont l’introduction est interdite en Nouvelle-Calédonie.
 </t>
         </is>
       </c>
